--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroha\Downloads\Timetable_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding projects\myGithub\Personal_use\Timetable_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7590B453-310D-4455-A681-B2FAA542D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E100B0-4AFF-4FE3-9697-AF129C082D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A827046-36E2-4731-89E4-16D8ED45DC26}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Course Code</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>SC4172</t>
+  </si>
+  <si>
+    <t>SC2207</t>
+  </si>
+  <si>
+    <t>16:30</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ECF822-A7D0-425F-828A-C5F772EAE46E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,6 +744,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
